--- a/backend/export-excel/CCS Summit evaluation form responses.xlsx
+++ b/backend/export-excel/CCS Summit evaluation form responses.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>Respondent</t>
   </si>
@@ -744,6 +744,18 @@
   </si>
   <si>
     <t>Nepomoceno</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>jimuelvictoria002@gmail.com</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>HAHHAHHA ok</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1110,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:I83"/>
+      <selection activeCell="A2" sqref="A2:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3486,6 +3498,35 @@
         <v>19</v>
       </c>
     </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
